--- a/Excel_Files/Dynamic_Range/1.5_cm/701_nm.xlsx
+++ b/Excel_Files/Dynamic_Range/1.5_cm/701_nm.xlsx
@@ -450,28 +450,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>215.026</v>
+        <v>11.578</v>
       </c>
       <c r="D2">
-        <v>574.564</v>
+        <v>12.803</v>
       </c>
       <c r="E2">
-        <v>555.112</v>
+        <v>18.069</v>
       </c>
       <c r="F2">
-        <v>1478.051</v>
+        <v>26.588</v>
       </c>
       <c r="G2">
-        <v>657.276</v>
+        <v>19.442</v>
       </c>
       <c r="H2">
-        <v>2548.409</v>
+        <v>31.13</v>
       </c>
       <c r="I2">
-        <v>387.964</v>
+        <v>13.469</v>
       </c>
       <c r="J2">
-        <v>607.63</v>
+        <v>15.17</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -482,28 +482,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>60.465</v>
+        <v>6.595</v>
       </c>
       <c r="D3">
-        <v>169.19</v>
+        <v>7.396</v>
       </c>
       <c r="E3">
-        <v>103.907</v>
+        <v>7.965</v>
       </c>
       <c r="F3">
-        <v>91.164</v>
+        <v>8.638999999999999</v>
       </c>
       <c r="G3">
-        <v>179.731</v>
+        <v>11.491</v>
       </c>
       <c r="H3">
-        <v>230.172</v>
+        <v>11.39</v>
       </c>
       <c r="I3">
-        <v>115.79</v>
+        <v>8.206</v>
       </c>
       <c r="J3">
-        <v>82.798</v>
+        <v>7.961</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -514,28 +514,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>21.279</v>
+        <v>4.263</v>
       </c>
       <c r="D4">
-        <v>31.478</v>
+        <v>4.471</v>
       </c>
       <c r="E4">
-        <v>33.653</v>
+        <v>4.875</v>
       </c>
       <c r="F4">
-        <v>21.595</v>
+        <v>4.362</v>
       </c>
       <c r="G4">
-        <v>34.334</v>
+        <v>5.349</v>
       </c>
       <c r="H4">
-        <v>44.288</v>
+        <v>5.799</v>
       </c>
       <c r="I4">
-        <v>48.094</v>
+        <v>5.979</v>
       </c>
       <c r="J4">
-        <v>14.988</v>
+        <v>3.833</v>
       </c>
     </row>
   </sheetData>
